--- a/Van-Deemter/Anionentauscher/Hwerte_Berechnungen.xlsx
+++ b/Van-Deemter/Anionentauscher/Hwerte_Berechnungen.xlsx
@@ -485,28 +485,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2585595483292218</v>
+        <v>0.6006449955288606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02241079388879495</v>
+        <v>0.003449560767412351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06418844118990696</v>
+        <v>0.198077953756783</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001409179752377715</v>
+        <v>0.002460253165434338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1943711071393148</v>
+        <v>0.4025670417720776</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2898386733092548</v>
+        <v>0.06290652118748939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4497288523296346</v>
+        <v>40.95294092481952</v>
       </c>
       <c r="I2" t="n">
-        <v>333.5343045548155</v>
+        <v>3.662740614291086</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2693046598239782</v>
+        <v>0.6255066030142888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02432480307632161</v>
+        <v>0.005370845379135032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06836365358836462</v>
+        <v>0.2105385829349462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001595705734665874</v>
+        <v>0.002607586125907585</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2009410062356136</v>
+        <v>0.4149680200793426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3015234474574456</v>
+        <v>0.1051334248129955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4441145129967525</v>
+        <v>15.57928897618314</v>
       </c>
       <c r="I3" t="n">
-        <v>337.7507278198244</v>
+        <v>9.628167256497566</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2851520214163079</v>
+        <v>0.6759015776862529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0272617425203151</v>
+        <v>0.005363028999031579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0733682310267925</v>
+        <v>0.2219128596046765</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001834702685118931</v>
+        <v>0.003020328008859646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2117837903895153</v>
+        <v>0.4539887180815764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3189171668957077</v>
+        <v>0.09680291297625157</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4409909112745539</v>
+        <v>21.99445821404493</v>
       </c>
       <c r="I4" t="n">
-        <v>340.1430645508528</v>
+        <v>6.819899746574118</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3018129147653366</v>
+        <v>0.7006313040409534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03053311962386644</v>
+        <v>0.004956420792866002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08085298022462251</v>
+        <v>0.2538682307314791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00222456512272805</v>
+        <v>0.003928111985103578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2209599345407141</v>
+        <v>0.4467630733094743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3365029242139711</v>
+        <v>0.06413450889380612</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4311708380436142</v>
+        <v>48.52560878751142</v>
       </c>
       <c r="I5" t="n">
-        <v>347.8899470117389</v>
+        <v>3.091151327061848</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3193326707334846</v>
+        <v>0.7355178565576053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03416821042662266</v>
+        <v>0.005377783474863417</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09089928389070909</v>
+        <v>0.2767259912407109</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002804189085443615</v>
+        <v>0.003055993718850992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2284333868427756</v>
+        <v>0.4587918653168944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3541978054205251</v>
+        <v>0.09636990725350784</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4159368760212965</v>
+        <v>22.66462490153101</v>
       </c>
       <c r="I6" t="n">
-        <v>360.631645443045</v>
+        <v>6.618243216099615</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3410004282538441</v>
+        <v>0.7855838105862326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0389513692686361</v>
+        <v>0.006268734688884374</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09675036515400504</v>
+        <v>0.2856901963497177</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003172620196862343</v>
+        <v>0.003340229931747669</v>
       </c>
       <c r="F7" t="n">
-        <v>0.244250063099839</v>
+        <v>0.4998936142365149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3783054272503833</v>
+        <v>0.1082313218460664</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4168542421969432</v>
+        <v>21.33286833028528</v>
       </c>
       <c r="I7" t="n">
-        <v>359.8380076677553</v>
+        <v>7.031403263622642</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3660026861409375</v>
+        <v>0.8508046472293335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04486029417360834</v>
+        <v>0.00772563888755116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1042568390762956</v>
+        <v>0.3108356743302962</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003679989772477106</v>
+        <v>0.004172853642042324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2617458470646419</v>
+        <v>0.5399689728990373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4058586177531838</v>
+        <v>0.1192104902348587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4159202405853569</v>
+        <v>20.51675457039077</v>
       </c>
       <c r="I8" t="n">
-        <v>360.6460695177839</v>
+        <v>7.311097838859756</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.392699413977861</v>
+        <v>0.9005431736220687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05162262148707233</v>
+        <v>0.007733732575661257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1075343351547449</v>
+        <v>0.3282438700265485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003915068123916511</v>
+        <v>0.005175482164538483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.285165078823116</v>
+        <v>0.5722993035955202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4368411764619074</v>
+        <v>0.1011582999288298</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4261333711728136</v>
+        <v>32.00688363733824</v>
       </c>
       <c r="I9" t="n">
-        <v>352.0024718720496</v>
+        <v>4.686491871548989</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4268709509726738</v>
+        <v>0.9653153057542256</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06098029668354329</v>
+        <v>0.009351958502678056</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1175576640779587</v>
+        <v>0.354101117583053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004671561334149671</v>
+        <v>0.005825022809728094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3093132868947151</v>
+        <v>0.6112141881711726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4745892343886179</v>
+        <v>0.1187760193464988</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4247773851426173</v>
+        <v>26.48069148017818</v>
       </c>
       <c r="I10" t="n">
-        <v>353.1261438262258</v>
+        <v>5.664504649067824</v>
       </c>
     </row>
     <row r="11">
@@ -746,28 +746,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4660407941773845</v>
+        <v>1.063152672460452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07266516384736717</v>
+        <v>0.009078616256204056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1283879743109361</v>
+        <v>0.3857730531340926</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005565887828761116</v>
+        <v>0.007244280531049848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3376528198664484</v>
+        <v>0.677379619326359</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5180705589728335</v>
+        <v>0.08565829148784623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4247789004912306</v>
+        <v>62.53532850974559</v>
       </c>
       <c r="I11" t="n">
-        <v>353.1248840903686</v>
+        <v>2.398644151627408</v>
       </c>
     </row>
     <row r="12">
@@ -775,28 +775,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5110763593828047</v>
+        <v>1.153658198284213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08735124195695398</v>
+        <v>0.01071978153551665</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1417216084897552</v>
+        <v>0.4062217343646014</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006773874403799047</v>
+        <v>0.007177423680875613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3693547508930496</v>
+        <v>0.747436463919612</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5677230576721539</v>
+        <v>0.1190354208568364</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4232669053046185</v>
+        <v>39.42721843197747</v>
       </c>
       <c r="I12" t="n">
-        <v>354.386317758643</v>
+        <v>3.804478377260883</v>
       </c>
     </row>
     <row r="13">
@@ -804,28 +804,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5694229220736914</v>
+        <v>1.293141304493127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1084081663473965</v>
+        <v>0.01316861602613564</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1567267920459519</v>
+        <v>0.4642103638125329</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008275287084605109</v>
+        <v>0.009186860326243459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4126961300277395</v>
+        <v>0.8289309406805941</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6328755936605279</v>
+        <v>0.1262023090104485</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4252301965992746</v>
+        <v>43.14218125161601</v>
       </c>
       <c r="I13" t="n">
-        <v>352.7501132318595</v>
+        <v>3.476875662015382</v>
       </c>
     </row>
     <row r="14">
@@ -833,28 +833,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6427781860904641</v>
+        <v>1.445411550443444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1380953868527075</v>
+        <v>0.01686233855524519</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177563408413092</v>
+        <v>0.5174695911583709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01060962596775123</v>
+        <v>0.01075308970744755</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4652147776773721</v>
+        <v>0.9279419592850728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.71410296424243</v>
+        <v>0.1563233680266344</v>
       </c>
       <c r="H14" t="n">
-        <v>0.424409729892716</v>
+        <v>35.23658559563479</v>
       </c>
       <c r="I14" t="n">
-        <v>353.4320479361244</v>
+        <v>4.256939129158485</v>
       </c>
     </row>
     <row r="15">
@@ -862,28 +862,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7319721884292066</v>
+        <v>1.642749849705268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1790267715460697</v>
+        <v>0.02072062766408668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2059014183358762</v>
+        <v>0.5892934958333429</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01424872382734837</v>
+        <v>0.01310435312115184</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5260707700933305</v>
+        <v>1.053456353871925</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8118572478427999</v>
+        <v>0.1745425397195176</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4198836844137865</v>
+        <v>36.42759603980525</v>
       </c>
       <c r="I15" t="n">
-        <v>357.2417923535656</v>
+        <v>4.117757313331674</v>
       </c>
     </row>
     <row r="16">
@@ -891,28 +891,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8595034690549612</v>
+        <v>1.95722385193836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2467788536366575</v>
+        <v>0.0227540668804668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2400779802757574</v>
+        <v>0.683589597402753</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01934860614778433</v>
+        <v>0.01629296187957609</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6194254887792039</v>
+        <v>1.273634254535607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9537929492062167</v>
+        <v>0.1607619980081202</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4217644095121156</v>
+        <v>62.76574262849955</v>
       </c>
       <c r="I16" t="n">
-        <v>355.6487854760326</v>
+        <v>2.389838687766767</v>
       </c>
     </row>
     <row r="17">
@@ -920,28 +920,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.037840477176332</v>
+        <v>2.363020657827727</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3597265156820637</v>
+        <v>0.02706723622796711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295228558023704</v>
+        <v>0.8264589204305919</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02920930002662405</v>
+        <v>0.02237714476530697</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7426119191526279</v>
+        <v>1.536561737397135</v>
       </c>
       <c r="G17" t="n">
-        <v>1.149812533686148</v>
+        <v>0.13696848488116</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4171283947902223</v>
+        <v>125.8515954129053</v>
       </c>
       <c r="I17" t="n">
-        <v>359.6015084886186</v>
+        <v>1.191880003649269</v>
       </c>
     </row>
     <row r="18">
@@ -949,28 +949,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.295347936994413</v>
+        <v>2.932695525100843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5603008416337593</v>
+        <v>0.03986748350886234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3744756802605319</v>
+        <v>1.020697096724684</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04693289049440843</v>
+        <v>0.02982632407620757</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9208722567338808</v>
+        <v>1.911998428376159</v>
       </c>
       <c r="G18" t="n">
-        <v>1.432994000181928</v>
+        <v>0.2004111716711897</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4129619463681539</v>
+        <v>91.01882144765344</v>
       </c>
       <c r="I18" t="n">
-        <v>363.2295937172758</v>
+        <v>1.648010791770883</v>
       </c>
     </row>
     <row r="19">
@@ -978,28 +978,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.768420163718573</v>
+        <v>3.936275171706294</v>
       </c>
       <c r="C19" t="n">
-        <v>1.044190296302319</v>
+        <v>0.06200516578579648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4921503740691353</v>
+        <v>1.359709246773113</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08097018276472127</v>
+        <v>0.04652024402994995</v>
       </c>
       <c r="F19" t="n">
-        <v>1.276269789649438</v>
+        <v>2.576565924933181</v>
       </c>
       <c r="G19" t="n">
-        <v>1.962875557479483</v>
+        <v>0.2488768511199588</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4227654076879491</v>
+        <v>107.1799404317341</v>
       </c>
       <c r="I19" t="n">
-        <v>354.8067019492705</v>
+        <v>1.399515612676975</v>
       </c>
     </row>
     <row r="20">
@@ -1007,28 +1007,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.682899795138602</v>
+        <v>5.877282752617938</v>
       </c>
       <c r="C20" t="n">
-        <v>2.404235763042567</v>
+        <v>0.1126519542947119</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7724023752350893</v>
+        <v>2.021289097295959</v>
       </c>
       <c r="E20" t="n">
-        <v>0.199539469444548</v>
+        <v>0.09356740149339357</v>
       </c>
       <c r="F20" t="n">
-        <v>1.910497419903512</v>
+        <v>3.855993655321979</v>
       </c>
       <c r="G20" t="n">
-        <v>2.969643947410544</v>
+        <v>0.2762937046066619</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4138892511019343</v>
+        <v>194.7738470043721</v>
       </c>
       <c r="I20" t="n">
-        <v>362.4157902159615</v>
+        <v>0.7701239273496147</v>
       </c>
     </row>
     <row r="21">
@@ -1036,28 +1036,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5.448731194987487</v>
+        <v>11.88731230136367</v>
       </c>
       <c r="C21" t="n">
-        <v>9.805008461082471</v>
+        <v>0.426490816740085</v>
       </c>
       <c r="D21" t="n">
-        <v>1.624605957744994</v>
+        <v>4.026153873613727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8629145335691404</v>
+        <v>0.2642299475413107</v>
       </c>
       <c r="F21" t="n">
-        <v>3.824125237242493</v>
+        <v>7.861158427749939</v>
       </c>
       <c r="G21" t="n">
-        <v>5.980666828210155</v>
+        <v>0.8056323459215731</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4088509343745416</v>
+        <v>95.2136706331823</v>
       </c>
       <c r="I21" t="n">
-        <v>366.8818813621384</v>
+        <v>1.575404025519466</v>
       </c>
     </row>
   </sheetData>

--- a/Van-Deemter/Anionentauscher/Hwerte_Berechnungen.xlsx
+++ b/Van-Deemter/Anionentauscher/Hwerte_Berechnungen.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>W_column (min)</t>
+          <t>σ_column (min)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -500,13 +500,13 @@
         <v>0.4025670417720776</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06290652118748939</v>
+        <v>0.0314532605937447</v>
       </c>
       <c r="H2" t="n">
-        <v>40.95294092481952</v>
+        <v>163.8117636992781</v>
       </c>
       <c r="I2" t="n">
-        <v>3.662740614291086</v>
+        <v>0.6104567690485143</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>0.4149680200793426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1051334248129955</v>
+        <v>0.05256671240649777</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57928897618314</v>
+        <v>62.31715590473257</v>
       </c>
       <c r="I3" t="n">
-        <v>9.628167256497566</v>
+        <v>1.604694542749594</v>
       </c>
     </row>
     <row r="4">
@@ -558,13 +558,13 @@
         <v>0.4539887180815764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09680291297625157</v>
+        <v>0.04840145648812579</v>
       </c>
       <c r="H4" t="n">
-        <v>21.99445821404493</v>
+        <v>87.9778328561797</v>
       </c>
       <c r="I4" t="n">
-        <v>6.819899746574118</v>
+        <v>1.136649957762353</v>
       </c>
     </row>
     <row r="5">
@@ -587,13 +587,13 @@
         <v>0.4467630733094743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06413450889380612</v>
+        <v>0.03206725444690306</v>
       </c>
       <c r="H5" t="n">
-        <v>48.52560878751142</v>
+        <v>194.1024351500457</v>
       </c>
       <c r="I5" t="n">
-        <v>3.091151327061848</v>
+        <v>0.5151918878436413</v>
       </c>
     </row>
     <row r="6">
@@ -616,13 +616,13 @@
         <v>0.4587918653168944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09636990725350784</v>
+        <v>0.04818495362675392</v>
       </c>
       <c r="H6" t="n">
-        <v>22.66462490153101</v>
+        <v>90.65849960612402</v>
       </c>
       <c r="I6" t="n">
-        <v>6.618243216099615</v>
+        <v>1.103040536016603</v>
       </c>
     </row>
     <row r="7">
@@ -645,13 +645,13 @@
         <v>0.4998936142365149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1082313218460664</v>
+        <v>0.05411566092303322</v>
       </c>
       <c r="H7" t="n">
-        <v>21.33286833028528</v>
+        <v>85.3314733211411</v>
       </c>
       <c r="I7" t="n">
-        <v>7.031403263622642</v>
+        <v>1.171900543937107</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         <v>0.5399689728990373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1192104902348587</v>
+        <v>0.05960524511742936</v>
       </c>
       <c r="H8" t="n">
-        <v>20.51675457039077</v>
+        <v>82.06701828156309</v>
       </c>
       <c r="I8" t="n">
-        <v>7.311097838859756</v>
+        <v>1.218516306476626</v>
       </c>
     </row>
     <row r="9">
@@ -703,13 +703,13 @@
         <v>0.5722993035955202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1011582999288298</v>
+        <v>0.05057914996441492</v>
       </c>
       <c r="H9" t="n">
-        <v>32.00688363733824</v>
+        <v>128.027534549353</v>
       </c>
       <c r="I9" t="n">
-        <v>4.686491871548989</v>
+        <v>0.7810819785914981</v>
       </c>
     </row>
     <row r="10">
@@ -732,13 +732,13 @@
         <v>0.6112141881711726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1187760193464988</v>
+        <v>0.05938800967324939</v>
       </c>
       <c r="H10" t="n">
-        <v>26.48069148017818</v>
+        <v>105.9227659207127</v>
       </c>
       <c r="I10" t="n">
-        <v>5.664504649067824</v>
+        <v>0.9440841081779707</v>
       </c>
     </row>
     <row r="11">
@@ -761,13 +761,13 @@
         <v>0.677379619326359</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08565829148784623</v>
+        <v>0.04282914574392312</v>
       </c>
       <c r="H11" t="n">
-        <v>62.53532850974559</v>
+        <v>250.1413140389824</v>
       </c>
       <c r="I11" t="n">
-        <v>2.398644151627408</v>
+        <v>0.3997740252712347</v>
       </c>
     </row>
     <row r="12">
@@ -790,13 +790,13 @@
         <v>0.747436463919612</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1190354208568364</v>
+        <v>0.05951771042841821</v>
       </c>
       <c r="H12" t="n">
-        <v>39.42721843197747</v>
+        <v>157.7088737279099</v>
       </c>
       <c r="I12" t="n">
-        <v>3.804478377260883</v>
+        <v>0.6340797295434805</v>
       </c>
     </row>
     <row r="13">
@@ -819,13 +819,13 @@
         <v>0.8289309406805941</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1262023090104485</v>
+        <v>0.06310115450522424</v>
       </c>
       <c r="H13" t="n">
-        <v>43.14218125161601</v>
+        <v>172.568725006464</v>
       </c>
       <c r="I13" t="n">
-        <v>3.476875662015382</v>
+        <v>0.5794792770025636</v>
       </c>
     </row>
     <row r="14">
@@ -848,13 +848,13 @@
         <v>0.9279419592850728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1563233680266344</v>
+        <v>0.07816168401331719</v>
       </c>
       <c r="H14" t="n">
-        <v>35.23658559563479</v>
+        <v>140.9463423825392</v>
       </c>
       <c r="I14" t="n">
-        <v>4.256939129158485</v>
+        <v>0.7094898548597476</v>
       </c>
     </row>
     <row r="15">
@@ -877,13 +877,13 @@
         <v>1.053456353871925</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1745425397195176</v>
+        <v>0.08727126985975878</v>
       </c>
       <c r="H15" t="n">
-        <v>36.42759603980525</v>
+        <v>145.710384159221</v>
       </c>
       <c r="I15" t="n">
-        <v>4.117757313331674</v>
+        <v>0.686292885555279</v>
       </c>
     </row>
     <row r="16">
@@ -906,13 +906,13 @@
         <v>1.273634254535607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607619980081202</v>
+        <v>0.08038099900406011</v>
       </c>
       <c r="H16" t="n">
-        <v>62.76574262849955</v>
+        <v>251.0629705139982</v>
       </c>
       <c r="I16" t="n">
-        <v>2.389838687766767</v>
+        <v>0.3983064479611279</v>
       </c>
     </row>
     <row r="17">
@@ -935,13 +935,13 @@
         <v>1.536561737397135</v>
       </c>
       <c r="G17" t="n">
-        <v>0.13696848488116</v>
+        <v>0.06848424244058</v>
       </c>
       <c r="H17" t="n">
-        <v>125.8515954129053</v>
+        <v>503.4063816516214</v>
       </c>
       <c r="I17" t="n">
-        <v>1.191880003649269</v>
+        <v>0.1986466672748782</v>
       </c>
     </row>
     <row r="18">
@@ -964,13 +964,13 @@
         <v>1.911998428376159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2004111716711897</v>
+        <v>0.1002055858355949</v>
       </c>
       <c r="H18" t="n">
-        <v>91.01882144765344</v>
+        <v>364.0752857906137</v>
       </c>
       <c r="I18" t="n">
-        <v>1.648010791770883</v>
+        <v>0.2746684652951472</v>
       </c>
     </row>
     <row r="19">
@@ -993,13 +993,13 @@
         <v>2.576565924933181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2488768511199588</v>
+        <v>0.1244384255599794</v>
       </c>
       <c r="H19" t="n">
-        <v>107.1799404317341</v>
+        <v>428.7197617269364</v>
       </c>
       <c r="I19" t="n">
-        <v>1.399515612676975</v>
+        <v>0.2332526021128291</v>
       </c>
     </row>
     <row r="20">
@@ -1022,13 +1022,13 @@
         <v>3.855993655321979</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2762937046066619</v>
+        <v>0.138146852303331</v>
       </c>
       <c r="H20" t="n">
-        <v>194.7738470043721</v>
+        <v>779.0953880174883</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7701239273496147</v>
+        <v>0.1283539878916024</v>
       </c>
     </row>
     <row r="21">
@@ -1051,13 +1051,13 @@
         <v>7.861158427749939</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8056323459215731</v>
+        <v>0.4028161729607865</v>
       </c>
       <c r="H21" t="n">
-        <v>95.2136706331823</v>
+        <v>380.8546825327292</v>
       </c>
       <c r="I21" t="n">
-        <v>1.575404025519466</v>
+        <v>0.2625673375865777</v>
       </c>
     </row>
   </sheetData>
